--- a/data/trans_camb/P19C07-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P19C07-Clase-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>-0.1375087341549033</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>2.370314537632535</v>
+        <v>2.370314537632534</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.33992660040895</v>
+        <v>-2.540028888410212</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.777425713570779</v>
+        <v>-3.965273996927668</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.561073547961427</v>
+        <v>-1.506250067449892</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.6603252056923005</v>
+        <v>1.23105426309877</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.484621608350079</v>
+        <v>-0.4381680838598118</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>1.853557241714482</v>
+        <v>1.70947432393931</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.1056579730385081</v>
+        <v>-0.2296182430942229</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.037434357288122</v>
+        <v>-1.834749545073265</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.4437521643631367</v>
+        <v>0.3655531168430186</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.993327190549351</v>
+        <v>3.052144440991623</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4698076818293061</v>
+        <v>0.3840379807356464</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.201834096823396</v>
+        <v>3.200414808244014</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.253003309291413</v>
+        <v>7.62462436702401</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.32012304571813</v>
+        <v>4.845876319378964</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>6.364622415920847</v>
+        <v>6.602827653843588</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>4.151981358722355</v>
+        <v>3.998792125315135</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.463827742639027</v>
+        <v>1.451796831010832</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>4.004656825571137</v>
+        <v>3.982630036627331</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>1.264431029403509</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>2.884413996840521</v>
+        <v>2.884413996840522</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.7695456909581606</v>
@@ -769,7 +769,7 @@
         <v>-0.05796224654713926</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.9991274842931597</v>
+        <v>0.9991274842931595</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.5804845423071535</v>
+        <v>-0.613409732153711</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.8644058504794769</v>
+        <v>-0.8777438963555121</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3937634131815999</v>
+        <v>-0.3668760293824047</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1397170886086183</v>
+        <v>0.1300699337604661</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4585358651865203</v>
+        <v>-0.4428403582767565</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4498857084740027</v>
+        <v>0.4113250987831399</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1042438199434625</v>
+        <v>-0.1429476655797302</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5968124892510465</v>
+        <v>-0.5907657560956732</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.08504787649807138</v>
+        <v>0.05675140847062454</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.630804461539829</v>
+        <v>1.546891832688545</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.494513402549958</v>
+        <v>0.4190632747492807</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.859659878377402</v>
+        <v>1.874895610991808</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>13.31976832506892</v>
+        <v>11.88417155901731</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>8.05056188687815</v>
+        <v>8.689434715686579</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>13.60336185313939</v>
+        <v>16.02115463337167</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.678788411165466</v>
+        <v>2.555110893315933</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.08252853421791</v>
+        <v>1.024223094306148</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>2.534143079706591</v>
+        <v>2.552090795310665</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-0.1875665948296447</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-0.570819375959759</v>
+        <v>-0.5708193759597593</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-2.77920374682677</v>
@@ -869,7 +869,7 @@
         <v>-1.609974002074136</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-0.5148799955684131</v>
+        <v>-0.5148799955684125</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-2.560942597872769</v>
@@ -878,7 +878,7 @@
         <v>-0.9326444612063695</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-0.6146806059496974</v>
+        <v>-0.6146806059496981</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.394489800569096</v>
+        <v>-5.105700316653953</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.388478187343628</v>
+        <v>-3.224013290694865</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.494457035020179</v>
+        <v>-3.50518078495106</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.730406419565229</v>
+        <v>-5.880332615355529</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-4.433331392674654</v>
+        <v>-4.427665176306257</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-3.496315611842946</v>
+        <v>-3.19527352801308</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-4.437375621161912</v>
+        <v>-4.472256040127238</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.921919282995525</v>
+        <v>-2.934582130108063</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-2.51888430494199</v>
+        <v>-2.877583388491588</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.06683709076811317</v>
+        <v>-0.00632942944318553</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.846234458356676</v>
+        <v>2.78037063637972</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.192249151390869</v>
+        <v>1.825827469631846</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-0.3811151575264849</v>
+        <v>-0.3728955850953645</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.338191027141234</v>
+        <v>1.164658760037255</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.267157873642585</v>
+        <v>2.723804282754698</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-0.9156453176760242</v>
+        <v>-0.9897773278230784</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.293745391975351</v>
+        <v>1.180235388216873</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.337893949085842</v>
+        <v>1.411753093087754</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.05328130918384347</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.1621504281520048</v>
+        <v>-0.1621504281520049</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.5944589741823383</v>
@@ -974,7 +974,7 @@
         <v>-0.3443660778113074</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.1101304768828392</v>
+        <v>-0.1101304768828391</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.6203625369244503</v>
@@ -983,7 +983,7 @@
         <v>-0.2259237221806972</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.1489001824648306</v>
+        <v>-0.1489001824648308</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.9298771397925185</v>
+        <v>-0.9185962095158089</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.6395722995749743</v>
+        <v>-0.6582628563884972</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.670907444000568</v>
+        <v>-0.6578372012534304</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.8746723720020577</v>
+        <v>-0.8742285308220109</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.7066277752935305</v>
+        <v>-0.7118171824035654</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5549944737952898</v>
+        <v>-0.5213830313587551</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.8161997016213378</v>
+        <v>-0.8053150297778485</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5560257708066452</v>
+        <v>-0.5897489347275875</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.4935745553796411</v>
+        <v>-0.5203526671863768</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1782779188205894</v>
+        <v>0.2453707940741607</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.481361680439313</v>
+        <v>1.420193088415876</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.200804006843176</v>
+        <v>1.010445402029011</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.01077311879177382</v>
+        <v>-0.01503718821499614</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4337860631234499</v>
+        <v>0.4680879159614104</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8365527735402224</v>
+        <v>1.034705711470656</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.2341194901359259</v>
+        <v>-0.2214444592830012</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4868822605376458</v>
+        <v>0.3841498033739011</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.4732023491127847</v>
+        <v>0.5174312137546714</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.384280099617609</v>
+        <v>-3.778270161987405</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.220296226844725</v>
+        <v>-3.292640935086137</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.850222523065221</v>
+        <v>-3.010329339408</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.518379919978128</v>
+        <v>-2.684377165583462</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.460603810875658</v>
+        <v>-2.407526231046899</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-2.520187380708937</v>
+        <v>-2.682281030666926</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.712185168401428</v>
+        <v>-2.732212111808663</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.423004406654639</v>
+        <v>-2.493305479318402</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-2.287247431606534</v>
+        <v>-2.056071190946741</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.596474375162043</v>
+        <v>1.098174744175509</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.12943736259119</v>
+        <v>1.885213391754809</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.578551919872149</v>
+        <v>2.698564223983735</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.674271530843223</v>
+        <v>3.522507851276672</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>5.788971170696856</v>
+        <v>5.813793375898175</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>4.005661036010783</v>
+        <v>3.790596099623839</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.299604957600883</v>
+        <v>1.311841130040568</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.077246626276801</v>
+        <v>2.023785632940565</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.488161482211884</v>
+        <v>2.464969808221722</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.6236573295003306</v>
+        <v>-0.6398865580677162</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.6026066849131542</v>
+        <v>-0.6008293638346364</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.5523889952257359</v>
+        <v>-0.5598022270214492</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.7622849422521517</v>
+        <v>-0.7670387851588792</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.8225595446469272</v>
+        <v>-1</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.6992186135402159</v>
+        <v>-0.6418779613431126</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.5559409852508496</v>
+        <v>-0.5687349584191626</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5107045924945463</v>
+        <v>-0.5536589998786344</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.4593411137515153</v>
+        <v>-0.4488315316930959</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,29 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.6388665835877378</v>
+        <v>0.3872969833468853</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.812302482800746</v>
+        <v>0.6826698904698004</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.9339712403871797</v>
+        <v>1.077244632579088</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>4.593665897146547</v>
-      </c>
-      <c r="G21" s="6" t="n">
-        <v>7.930233644928549</v>
-      </c>
+        <v>5.435199471831941</v>
+      </c>
+      <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="n">
-        <v>5.991974051581241</v>
+        <v>7.194005659846394</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5431302581672502</v>
+        <v>0.5020051729564465</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.7801589258848495</v>
+        <v>0.7945293573903573</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.9858952567854418</v>
+        <v>0.9112147334535284</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1286,7 @@
         <v>-0.3912214943610364</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2214462794371062</v>
+        <v>0.2214462794371069</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0.3356996583412576</v>
@@ -1306,7 +1304,7 @@
         <v>0.04074598093769255</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.7825143847476783</v>
+        <v>0.782514384747679</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1315,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.725133947159751</v>
+        <v>-1.849677149024108</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.018778717958376</v>
+        <v>-1.872114021990876</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.420597835000487</v>
+        <v>-1.508890426369276</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.856670131881297</v>
+        <v>-1.939451419588566</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.674940153038426</v>
+        <v>-1.628878787637543</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.6985174275521959</v>
+        <v>-0.7839521532801864</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.25126384316083</v>
+        <v>-1.19425210788328</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.381431486890153</v>
+        <v>-1.195076661024535</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.4533679755967771</v>
+        <v>-0.5590609266359012</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1350,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.744104480654945</v>
+        <v>1.427448918184445</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.218539658152343</v>
+        <v>1.277531084321859</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.007015178194671</v>
+        <v>2.023768507696227</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.621236611723423</v>
+        <v>2.376551547261773</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.46514225495575</v>
+        <v>2.661963217293218</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.626204629101657</v>
+        <v>3.568784274140414</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.327162992164453</v>
+        <v>1.294158011859701</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.270357874260441</v>
+        <v>1.380298574457473</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.174146113864706</v>
+        <v>2.10824743680712</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1391,7 @@
         <v>-0.1347016225987547</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.07624625330812672</v>
+        <v>0.07624625330812695</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.08851186702895654</v>
@@ -1411,7 +1409,7 @@
         <v>0.01247868722885581</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.2396494582932918</v>
+        <v>0.239649458293292</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1420,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.4540319038420201</v>
+        <v>-0.4649894233633663</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.5339051095135404</v>
+        <v>-0.5146368991781556</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.4099265346650982</v>
+        <v>-0.388339310725706</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.3909593939573358</v>
+        <v>-0.4106552901919848</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3544248693890769</v>
+        <v>-0.3347248250378235</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1595731842163332</v>
+        <v>-0.1602544232276931</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.3261237704191305</v>
+        <v>-0.2961004507361685</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.3412967006144252</v>
+        <v>-0.3065648289854109</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1212528272509622</v>
+        <v>-0.1476524825378399</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1455,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.8356287676317873</v>
+        <v>0.7146062239196017</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.5155544126166001</v>
+        <v>0.6302751218758305</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.9333133261711999</v>
+        <v>1.008588428589878</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.9104062193008997</v>
+        <v>0.9036217820608802</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.9078386153683915</v>
+        <v>1.055482727874266</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.346862114292827</v>
+        <v>1.345502267102174</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5304358397882212</v>
+        <v>0.500416079564922</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.4710925367758133</v>
+        <v>0.5468306847014304</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.8089814054164007</v>
+        <v>0.7945754035662946</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1500,7 @@
         <v>-1.492703982133833</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-0.6566064128502622</v>
+        <v>-0.6566064128502611</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>-2.013738375136888</v>
@@ -1531,31 +1529,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-4.590273015764907</v>
+        <v>-4.314430871767573</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.412953339504233</v>
+        <v>-4.31096718212665</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-3.692128127589639</v>
+        <v>-3.356933115392891</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-4.744690251164784</v>
+        <v>-4.515500229483147</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-4.383805350453176</v>
+        <v>-4.586497646041806</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-4.080807769989408</v>
+        <v>-3.998106880516653</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-3.795263465435346</v>
+        <v>-3.720277117451781</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-3.989031157194672</v>
+        <v>-3.545113923362543</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-3.063978581076878</v>
+        <v>-3.287869791445891</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1564,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.124884557115164</v>
+        <v>1.0662907369364</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.170016637315546</v>
+        <v>1.129306432241471</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.917380431824552</v>
+        <v>3.092050172721443</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.1261219250739332</v>
+        <v>0.2509572425228762</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.4489498891520329</v>
+        <v>0.6992086595471623</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.6816144310938479</v>
+        <v>0.5399061070500683</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-0.2169477701147701</v>
+        <v>-0.09648812749008942</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-0.1281072374118167</v>
+        <v>0.0679364138159806</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.7356748513586608</v>
+        <v>0.5385290171987878</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1605,7 @@
         <v>-0.4184652452843687</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.1840733105139123</v>
+        <v>-0.184073310513912</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.4556124863489939</v>
@@ -1636,31 +1634,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.7792546320070144</v>
+        <v>-0.8023889692323293</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.7807054742724022</v>
+        <v>-0.7818641896187695</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.7335086491362194</v>
+        <v>-0.6947673557014641</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.7499673308749976</v>
+        <v>-0.7375267977432719</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.7264967327219912</v>
+        <v>-0.729420248268819</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.6305341023633163</v>
+        <v>-0.6263551612747446</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.6830723221485647</v>
+        <v>-0.6701527017253079</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.6894627512653487</v>
+        <v>-0.6585223187415339</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.5636481412546487</v>
+        <v>-0.5739754478518738</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1669,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.811064011884891</v>
+        <v>0.6099155135969262</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.8724143269447737</v>
+        <v>0.7310105235357556</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.705759726637889</v>
+        <v>1.746260508794427</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.06928501323914427</v>
+        <v>0.1602215516281902</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.2356446148866328</v>
+        <v>0.3239362051823807</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2360244002067831</v>
+        <v>0.2309724946958727</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.03232638712061107</v>
+        <v>-0.02420618018519841</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.007294384393620018</v>
+        <v>0.05913659077230642</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.3010531696739497</v>
+        <v>0.2005207102984428</v>
       </c>
     </row>
     <row r="34">
@@ -1745,31 +1743,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>2.230031123598502</v>
+        <v>2.333961341164785</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-2.546911845547811</v>
+        <v>-2.980945530155733</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-5.157955394096978</v>
+        <v>-4.561263648881186</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-0.5416789503872003</v>
+        <v>-0.7159660944052482</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-0.9284089626938457</v>
+        <v>-0.7147323252514649</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-1.491843376321542</v>
+        <v>-1.330985291654103</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>0.6036531383079726</v>
+        <v>0.4468578202051691</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-0.4101932870379648</v>
+        <v>-0.4951177564202041</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-1.497160929324026</v>
+        <v>-1.33747061183105</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1778,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>11.93226098722527</v>
+        <v>12.49766317020083</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>5.520683958894256</v>
+        <v>5.577229968191432</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>4.940349882753215</v>
+        <v>5.318803558630413</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2.938470511265734</v>
+        <v>3.019777137860602</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>2.587598607113639</v>
+        <v>2.708887909629348</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>2.486357487714116</v>
+        <v>2.781439898589516</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>3.891514254010817</v>
+        <v>3.952045490808934</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>2.818736324755427</v>
+        <v>2.781881179435594</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>2.213143653597579</v>
+        <v>2.315732647949343</v>
       </c>
     </row>
     <row r="37">
@@ -1850,31 +1848,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.2604607715552841</v>
+        <v>0.2638566834120724</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.4082877085060803</v>
+        <v>-0.4547449530976132</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.8083864868291046</v>
+        <v>-0.7556954177727885</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.1835471537497359</v>
+        <v>-0.1940427620407212</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.2418144209629517</v>
+        <v>-0.1975741064499902</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.3999222610818897</v>
+        <v>-0.3757731283113137</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1274110538082163</v>
+        <v>0.116479292412394</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.1156352320778611</v>
+        <v>-0.1293663044926844</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.3700744642524871</v>
+        <v>-0.340246040229732</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1883,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>3.977406271915658</v>
+        <v>4.225615792963836</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>2.033928652778317</v>
+        <v>1.834433384210865</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1.688966108591701</v>
+        <v>2.273470800817431</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1.192685505256937</v>
+        <v>1.288191816642101</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1.110689274700734</v>
+        <v>1.152629904508698</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1.065375227351354</v>
+        <v>1.13046343172521</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1.417662099036714</v>
+        <v>1.385660500510534</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>1.009965680587737</v>
+        <v>1.013833283107771</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.82077805997147</v>
+        <v>0.830994952636069</v>
       </c>
     </row>
     <row r="40">
@@ -1939,7 +1937,7 @@
         <v>0.1389360868825414</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>0.7089760359403591</v>
+        <v>0.7089760359403584</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>0.0002832181252035437</v>
@@ -1948,7 +1946,7 @@
         <v>-0.2130788052954996</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>0.3457667146408417</v>
+        <v>0.3457667146408425</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1957,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-1.1481865241033</v>
+        <v>-1.206395208207376</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-1.580803254835447</v>
+        <v>-1.599432148850534</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-1.081768014767346</v>
+        <v>-1.011474637143595</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-0.8702831178076434</v>
+        <v>-0.8858643106668505</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-0.911067018639139</v>
+        <v>-0.8319565719533276</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-0.2616932715360049</v>
+        <v>-0.2573714525861377</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-0.7423219546635137</v>
+        <v>-0.6947531114795901</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-0.8791578696224674</v>
+        <v>-0.8889454090539509</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-0.3630755248172503</v>
+        <v>-0.321010911478963</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1992,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.8778185177911546</v>
+        <v>0.8686480639310908</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>0.337455231454005</v>
+        <v>0.3640642078517519</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1.054006528820708</v>
+        <v>0.9920970863121878</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1.042074391764811</v>
+        <v>0.9962867601111165</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>1.046804251213236</v>
+        <v>1.097089928008967</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>1.63122124479959</v>
+        <v>1.676789412373832</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>0.7459354994408947</v>
+        <v>0.7267954705378318</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>0.500061020174483</v>
+        <v>0.4519300557142945</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>1.044645110016034</v>
+        <v>1.124157074584323</v>
       </c>
     </row>
     <row r="43">
@@ -2044,7 +2042,7 @@
         <v>0.04003162691631757</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.2042771233896081</v>
+        <v>0.2042771233896079</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>8.190111494723233e-05</v>
@@ -2053,7 +2051,7 @@
         <v>-0.06161820227001239</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.0999889375737317</v>
+        <v>0.09998893757373191</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2062,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.2874100896703233</v>
+        <v>-0.2950611113099798</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.3908851539027514</v>
+        <v>-0.3959079183355428</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.2721675909275471</v>
+        <v>-0.257092114641993</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.2164905462610558</v>
+        <v>-0.2328652521901409</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.2257028223722267</v>
+        <v>-0.2047027618048386</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.06372387595709657</v>
+        <v>-0.065666180634832</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.1937185067571903</v>
+        <v>-0.1838345291878641</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.2280757197050083</v>
+        <v>-0.2358975376080224</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.0987477743064558</v>
+        <v>-0.08909328483001204</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2097,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.2959479929276377</v>
+        <v>0.299875108061222</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.1090156206436276</v>
+        <v>0.1306255674183956</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.3601087436362084</v>
+        <v>0.334515450433175</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.3471992032787864</v>
+        <v>0.3325078868483528</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.3353629805935079</v>
+        <v>0.3744977858495028</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.5464950514654566</v>
+        <v>0.5762655698689738</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.2390641867293584</v>
+        <v>0.2408232009523305</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.1650077714572374</v>
+        <v>0.1487218806874664</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.3326469678794854</v>
+        <v>0.3604976843520855</v>
       </c>
     </row>
     <row r="46">
